--- a/授课时间表_0320.xlsx
+++ b/授课时间表_0320.xlsx
@@ -677,18 +677,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1584,7 +1578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1608,16 +1602,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1626,89 +1620,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,18 +1760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1793,39 +1775,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1835,10 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -1846,16 +1816,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1863,9 +1827,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,18 +1847,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1922,9 +1877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,15 +1895,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1970,64 +1916,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1">
@@ -2063,12 +2006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2080,9 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2418,7 +2352,7 @@
     <col min="3" max="3" width="14.6106194690265" customWidth="1"/>
     <col min="4" max="4" width="17.3982300884956" customWidth="1"/>
     <col min="5" max="5" width="26.1238938053097" customWidth="1"/>
-    <col min="6" max="6" width="44.2743362831858" style="54" customWidth="1"/>
+    <col min="6" max="6" width="44.2743362831858" style="43" customWidth="1"/>
     <col min="7" max="7" width="16.3716814159292" customWidth="1"/>
     <col min="9" max="9" width="5.92035398230088" customWidth="1"/>
     <col min="10" max="10" width="58.0796460176991" customWidth="1"/>
@@ -2426,39 +2360,39 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:10">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="J2" s="99" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="110">
+      <c r="B3" s="93">
         <v>3.29</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="94" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2476,24 +2410,24 @@
       <c r="H3" s="12">
         <v>20</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="100">
         <f>SUM(H3:H8)</f>
         <v>175</v>
       </c>
-      <c r="J3" s="118" t="s">
+      <c r="J3" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:10">
-      <c r="B4" s="112"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -2502,19 +2436,19 @@
       <c r="H4" s="16">
         <v>20</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="119" t="s">
+      <c r="I4" s="100"/>
+      <c r="J4" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="112"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="57" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -2523,21 +2457,21 @@
       <c r="H5" s="16">
         <v>20</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="119" t="s">
+      <c r="I5" s="100"/>
+      <c r="J5" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:10">
-      <c r="B6" s="112"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="50" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="57" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -2546,19 +2480,19 @@
       <c r="H6" s="16">
         <v>30</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="119" t="s">
+      <c r="I6" s="100"/>
+      <c r="J6" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="94.5" spans="2:10">
-      <c r="B7" s="112"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="10"/>
       <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="57" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -2567,21 +2501,21 @@
       <c r="H7" s="16">
         <v>35</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="120" t="s">
+      <c r="I7" s="100"/>
+      <c r="J7" s="101" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" ht="54" spans="2:10">
-      <c r="B8" s="112"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="57" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -2590,14 +2524,14 @@
       <c r="H8" s="16">
         <v>50</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="120" t="s">
+      <c r="I8" s="102"/>
+      <c r="J8" s="101" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:10">
-      <c r="B9" s="112"/>
-      <c r="C9" s="74" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2606,7 +2540,7 @@
       <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="57" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -2615,20 +2549,20 @@
       <c r="H9" s="16">
         <v>75</v>
       </c>
-      <c r="I9" s="122">
+      <c r="I9" s="103">
         <f>SUM(H9:H16)</f>
         <v>255</v>
       </c>
-      <c r="J9" s="119"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" ht="27" spans="2:10">
-      <c r="B10" s="112"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="57" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -2637,21 +2571,21 @@
       <c r="H10" s="16">
         <v>20</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="120" t="s">
+      <c r="I10" s="100"/>
+      <c r="J10" s="101" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" ht="54" spans="2:10">
-      <c r="B11" s="112"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="63" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="57" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -2660,19 +2594,19 @@
       <c r="H11" s="16">
         <v>40</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="120" t="s">
+      <c r="I11" s="100"/>
+      <c r="J11" s="101" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="54" spans="2:10">
-      <c r="B12" s="112"/>
-      <c r="C12" s="111"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="10"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="57" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -2681,21 +2615,21 @@
       <c r="H12" s="16">
         <v>20</v>
       </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="119" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="112"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="63" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="50" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="57" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="16" t="s">
@@ -2704,19 +2638,19 @@
       <c r="H13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="119" t="s">
+      <c r="I13" s="100"/>
+      <c r="J13" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="112"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="67"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="57" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -2725,19 +2659,19 @@
       <c r="H14" s="16">
         <v>25</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="119" t="s">
+      <c r="I14" s="100"/>
+      <c r="J14" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" ht="27" spans="2:10">
-      <c r="B15" s="112"/>
-      <c r="C15" s="111"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="10"/>
       <c r="E15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="57" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -2746,31 +2680,31 @@
       <c r="H15" s="16">
         <v>10</v>
       </c>
-      <c r="I15" s="117"/>
-      <c r="J15" s="119" t="s">
+      <c r="I15" s="100"/>
+      <c r="J15" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="27.75" spans="2:10">
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="115" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="21">
         <v>15</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124" t="s">
+      <c r="I16" s="104"/>
+      <c r="J16" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2812,8 +2746,8 @@
     <col min="4" max="4" width="17.3982300884956" customWidth="1"/>
     <col min="5" max="5" width="26.1238938053097" customWidth="1"/>
     <col min="6" max="6" width="6.3716814159292" customWidth="1"/>
-    <col min="7" max="7" width="9.3716814159292" style="54" customWidth="1"/>
-    <col min="8" max="9" width="9.24778761061947" style="54" customWidth="1"/>
+    <col min="7" max="7" width="9.3716814159292" style="43" customWidth="1"/>
+    <col min="8" max="9" width="9.24778761061947" style="43" customWidth="1"/>
     <col min="10" max="10" width="39.6283185840708" customWidth="1"/>
     <col min="12" max="12" width="39.7522123893805" customWidth="1"/>
     <col min="14" max="14" width="49" customWidth="1"/>
@@ -2839,13 +2773,13 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="67" t="s">
         <v>60</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2867,7 +2801,7 @@
       <c r="R2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="98"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" ht="14.25" spans="2:19">
       <c r="B3" s="5"/>
@@ -2875,45 +2809,45 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="85" t="s">
+      <c r="O3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="85" t="s">
+      <c r="P3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="99" t="s">
+      <c r="S3" s="82" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:19">
-      <c r="B4" s="58">
+      <c r="B4" s="47">
         <v>3.29</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -2925,34 +2859,34 @@
       <c r="F4" s="12">
         <v>20</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="100"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="83"/>
     </row>
     <row r="5" ht="27" spans="2:19">
-      <c r="B5" s="58"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -2961,65 +2895,65 @@
       <c r="F5" s="12">
         <v>10</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="88" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="101"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" ht="105" customHeight="1" spans="2:19">
-      <c r="B6" s="66"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="16">
         <v>20</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="91" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="92" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="102"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="85"/>
     </row>
     <row r="7" ht="81" customHeight="1" spans="2:19">
-      <c r="B7" s="66"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="10"/>
       <c r="E7" s="16" t="s">
         <v>19</v>
@@ -3027,35 +2961,35 @@
       <c r="F7" s="16">
         <v>20</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="91" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="92" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="92" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="103" t="s">
+      <c r="S7" s="86" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" ht="167" customHeight="1" spans="2:19">
-      <c r="B8" s="66"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
@@ -3065,35 +2999,35 @@
       <c r="F8" s="16">
         <v>30</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="91" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="93" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="102"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="85"/>
     </row>
     <row r="9" ht="201" customHeight="1" spans="2:19">
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16" t="s">
         <v>26</v>
@@ -3101,38 +3035,38 @@
       <c r="F9" s="16">
         <v>35</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="91" t="s">
+      <c r="H9" s="55"/>
+      <c r="I9" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="92" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="92" t="s">
+      <c r="P9" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="43" t="s">
+      <c r="Q9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="102"/>
+      <c r="S9" s="85"/>
     </row>
     <row r="10" ht="216" spans="2:19">
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -3142,31 +3076,31 @@
       <c r="F10" s="16">
         <v>50</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="91" t="s">
+      <c r="H10" s="55"/>
+      <c r="I10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="93" t="s">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="102"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="85"/>
     </row>
     <row r="11" ht="148.5" spans="2:19">
-      <c r="B11" s="66"/>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -3178,39 +3112,39 @@
       <c r="F11" s="16">
         <v>75</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="91" t="s">
+      <c r="H11" s="55"/>
+      <c r="I11" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="93" t="s">
+      <c r="L11" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="92" t="s">
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="43" t="s">
+      <c r="Q11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="R11" s="104"/>
-      <c r="S11" s="102"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="85"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16" t="s">
         <v>89</v>
@@ -3218,50 +3152,50 @@
       <c r="F12" s="16">
         <v>10</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="69" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="43"/>
-      <c r="S12" s="102"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="35"/>
+      <c r="S12" s="85"/>
     </row>
     <row r="13" ht="40.5" spans="2:19">
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="16">
         <v>20</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="102"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="85"/>
     </row>
     <row r="14" ht="121.5" spans="2:19">
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
         <v>40</v>
       </c>
@@ -3271,31 +3205,31 @@
       <c r="F14" s="16">
         <v>40</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="93" t="s">
+      <c r="I14" s="75"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="92" t="s">
+      <c r="O14" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="102"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="85"/>
     </row>
     <row r="15" ht="202.5" spans="2:19">
-      <c r="B15" s="66"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
         <v>93</v>
@@ -3303,27 +3237,27 @@
       <c r="F15" s="16">
         <v>20</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43" t="s">
+      <c r="H15" s="55"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="102"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="85"/>
     </row>
     <row r="16" ht="40.5" spans="2:19">
-      <c r="B16" s="66"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>47</v>
       </c>
@@ -3333,29 +3267,29 @@
       <c r="F16" s="16">
         <v>50</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="91"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43" t="s">
+      <c r="I16" s="75"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="102"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="85"/>
     </row>
     <row r="17" ht="40.5" spans="2:19">
-      <c r="B17" s="66"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
         <v>96</v>
@@ -3363,31 +3297,31 @@
       <c r="F17" s="16">
         <v>20</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="43" t="s">
+      <c r="I17" s="75"/>
+      <c r="J17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="102"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="85"/>
     </row>
     <row r="18" ht="81" spans="2:19">
-      <c r="B18" s="66"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
         <v>51</v>
@@ -3395,27 +3329,27 @@
       <c r="F18" s="16">
         <v>10</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="102"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="85"/>
     </row>
     <row r="19" ht="94.5" spans="2:19">
-      <c r="B19" s="66"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
         <v>54</v>
@@ -3423,79 +3357,79 @@
       <c r="F19" s="16">
         <v>10</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="43" t="s">
+      <c r="H19" s="58"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="102"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="85"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="63" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="61">
         <v>5</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="69" t="s">
+      <c r="G20" s="62"/>
+      <c r="H20" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="105"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="88"/>
     </row>
     <row r="21" ht="135.75" spans="2:19">
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="21">
         <v>15</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="106"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3539,7 +3473,7 @@
   <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3572,25 +3506,25 @@
       <c r="H2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3602,17 +3536,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="Q3" s="51" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="Q3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3638,10 +3572,10 @@
       <c r="H4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
@@ -3653,14 +3587,14 @@
       <c r="M4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
-      <c r="Q4" s="52" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="Q4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="16">
         <f>COUNTIF(M:M,"有")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:18">
@@ -3677,29 +3611,29 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="14">
         <v>2</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="35" t="s">
         <v>71</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="Q5" s="52" t="s">
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="Q5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="16">
         <f>COUNTIF(M:M,"无")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -3716,21 +3650,21 @@
         <v>16</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="14"/>
@@ -3746,25 +3680,25 @@
         <v>20</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="Q7" s="51" t="s">
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
+      <c r="Q7" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="42" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3780,31 +3714,31 @@
       <c r="F8" s="18">
         <v>30</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="14">
         <v>3</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="16" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="Q8" s="51" t="s">
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="Q8" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="51"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="14"/>
@@ -3812,27 +3746,27 @@
       <c r="D9" s="15"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="16" t="s">
         <v>118</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
       <c r="Q9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="52">
+      <c r="R9" s="16">
         <f>COUNTIFS(M:M,"无",I:I,Q9)</f>
         <v>11</v>
       </c>
@@ -3847,29 +3781,29 @@
       <c r="F10" s="18">
         <v>35</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
       <c r="Q10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="16">
         <f>COUNTIFS(M:M,"无",I:I,Q10)</f>
         <v>0</v>
       </c>
@@ -3880,29 +3814,29 @@
       <c r="D11" s="15"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="16" t="s">
         <v>120</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="Q11" s="22" t="s">
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="Q11" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="R11" s="52">
+      <c r="R11" s="16">
         <f>COUNTIFS(M:M,"无",I:I,Q11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -3911,27 +3845,27 @@
       <c r="D12" s="15"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="Q12" s="22" t="s">
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="Q12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="52">
+      <c r="R12" s="16">
         <f>COUNTIFS(M:M,"无",I:I,Q12)</f>
         <v>1</v>
       </c>
@@ -3940,25 +3874,25 @@
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="16" t="s">
         <v>123</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="14"/>
@@ -3976,30 +3910,30 @@
         <v>31</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="14">
         <v>4</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="16" t="s">
         <v>124</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="14"/>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -4008,56 +3942,56 @@
       <c r="F15" s="18">
         <v>75</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="14">
         <v>5</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="16" t="s">
         <v>125</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="14"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="20" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="45"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="14"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
         <v>89</v>
       </c>
@@ -4068,26 +4002,26 @@
       <c r="H17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="20" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="14"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
         <v>37</v>
       </c>
@@ -4098,25 +4032,25 @@
         <v>38</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="20" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="14"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4132,27 +4066,27 @@
       <c r="H19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="14">
         <v>6</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="14"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
         <v>93</v>
@@ -4164,27 +4098,27 @@
         <v>45</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="14">
         <v>7</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="14"/>
-      <c r="C21" s="22"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
         <v>47</v>
       </c>
@@ -4200,27 +4134,27 @@
       <c r="H21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="14">
         <v>8</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="14"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16" t="s">
         <v>96</v>
@@ -4231,28 +4165,28 @@
       <c r="G22" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="20" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="14"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="18" t="s">
         <v>51</v>
@@ -4260,53 +4194,53 @@
       <c r="F23" s="18">
         <v>10</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="41" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="20" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="41" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="20" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
+      <c r="M24" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="14"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
         <v>54</v>
@@ -4317,27 +4251,27 @@
       <c r="G25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="41" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="20" t="s">
+      <c r="J25" s="14"/>
+      <c r="K25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="16" t="s">
@@ -4346,89 +4280,89 @@
       <c r="F26" s="16">
         <v>5</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>58</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="14">
         <v>9</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F27" s="16">
         <v>15</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="20" t="s">
+      <c r="J27" s="14"/>
+      <c r="K27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" ht="14.25" spans="2:15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="21">
         <v>10</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="25" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="40"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B3:R28" etc:filterBottomFollowUsedRange="0">
